--- a/plan.xlsx
+++ b/plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\maxu\finegusto_plan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mokry\Desktop\Finegusto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5F3C0-DD5D-4FBE-BDA8-0A0A811E4F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45492E-4DAC-4E59-ABF3-0A0CCFBEABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43BB1CFA-D819-4C4C-91AC-73CB590F3D68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43BB1CFA-D819-4C4C-91AC-73CB590F3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,42 +474,27 @@
         <v>394</v>
       </c>
       <c r="D2" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D3" s="3">
-        <v>1000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>45890</v>
-      </c>
-      <c r="C4">
-        <v>394</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45890</v>
-      </c>
-      <c r="C5" s="3">
-        <v>395</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mokry\Desktop\Finegusto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45492E-4DAC-4E59-ABF3-0A0CCFBEABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BF67C-44F6-4E91-974E-314ED5FB8FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43BB1CFA-D819-4C4C-91AC-73CB590F3D68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43BB1CFA-D819-4C4C-91AC-73CB590F3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>datum</t>
-  </si>
-  <si>
-    <t>vyrobek</t>
   </si>
   <si>
     <t>mnozstvi</t>
@@ -93,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -104,7 +101,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -439,62 +435,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA80B1-4108-4CBB-B24D-7A3E4FADACF3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45889</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>394</v>
+      </c>
       <c r="C2" s="3">
-        <v>394</v>
-      </c>
-      <c r="D2" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45890</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>394</v>
+      </c>
       <c r="C3" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B5" s="3">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B6" s="3">
         <v>394</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C6" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B7" s="3">
+        <v>394</v>
+      </c>
+      <c r="C7" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="C5" s="3"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B9" s="3">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mokry\Desktop\Finegusto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BF67C-44F6-4E91-974E-314ED5FB8FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC92C3-C540-43D0-9096-6FABDC466C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43BB1CFA-D819-4C4C-91AC-73CB590F3D68}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>mnozstvi</t>
   </si>
   <si>
-    <t>reg.č</t>
+    <t>reg.c</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mokry\Desktop\Finegusto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC92C3-C540-43D0-9096-6FABDC466C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1F2EF6-D401-4496-A952-44DD9F93C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43BB1CFA-D819-4C4C-91AC-73CB590F3D68}"/>
   </bookViews>
@@ -90,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -101,6 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -435,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA80B1-4108-4CBB-B24D-7A3E4FADACF3}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,90 +461,1333 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45910</v>
       </c>
       <c r="B2" s="3">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3">
-        <v>4000</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45890</v>
+        <v>45910</v>
       </c>
       <c r="B3" s="3">
-        <v>394</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3">
-        <v>8000</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45892</v>
+        <v>45910</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45892</v>
+        <v>45910</v>
       </c>
       <c r="B5" s="3">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="B6" s="3">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C6" s="3">
-        <v>4000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="B7" s="3">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="B9" s="3">
+        <v>216</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>45905</v>
+      </c>
+      <c r="B10">
+        <v>219</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B11">
+        <v>248</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B12">
+        <v>251</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B13">
+        <v>222</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>45791</v>
+      </c>
+      <c r="B14">
+        <v>248</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B15">
+        <v>218</v>
+      </c>
+      <c r="C15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B16">
+        <v>217</v>
+      </c>
+      <c r="C16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>45757</v>
+      </c>
+      <c r="B17">
+        <v>251</v>
+      </c>
+      <c r="C17">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>45909</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>45917</v>
+      </c>
+      <c r="B20">
+        <v>344</v>
+      </c>
+      <c r="C20">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>45917</v>
+      </c>
+      <c r="B21">
+        <v>345</v>
+      </c>
+      <c r="C21">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>45917</v>
+      </c>
+      <c r="B22">
+        <v>343</v>
+      </c>
+      <c r="C22">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B23">
+        <v>277</v>
+      </c>
+      <c r="C23">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B24">
+        <v>275</v>
+      </c>
+      <c r="C24">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B25">
+        <v>274</v>
+      </c>
+      <c r="C25">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B26">
+        <v>273</v>
+      </c>
+      <c r="C26">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>45901</v>
+      </c>
+      <c r="B27">
+        <v>268</v>
+      </c>
+      <c r="C27">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>45922</v>
+      </c>
+      <c r="B28">
+        <v>269</v>
+      </c>
+      <c r="C28">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>45932</v>
+      </c>
+      <c r="B29">
+        <v>268</v>
+      </c>
+      <c r="C29">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>45763</v>
+      </c>
+      <c r="B30">
+        <v>262</v>
+      </c>
+      <c r="C30">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>45763</v>
+      </c>
+      <c r="B31">
+        <v>260</v>
+      </c>
+      <c r="C31">
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>45763</v>
+      </c>
+      <c r="B32">
+        <v>266</v>
+      </c>
+      <c r="C32">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B33">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B34">
+        <v>96</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B35">
+        <v>103</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>45866</v>
+      </c>
+      <c r="B36">
+        <v>112</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>45866</v>
+      </c>
+      <c r="B37">
+        <v>101</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>45866</v>
+      </c>
+      <c r="B38">
+        <v>116</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B39">
+        <v>113</v>
+      </c>
+      <c r="C39">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B40">
+        <v>110</v>
+      </c>
+      <c r="C40">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B41">
+        <v>111</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B42">
         <v>102</v>
       </c>
-      <c r="C9">
+      <c r="C42">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B43">
+        <v>108</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B44">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B45">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B46">
+        <v>117</v>
+      </c>
+      <c r="C46">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>45887</v>
+      </c>
+      <c r="B47">
+        <v>114</v>
+      </c>
+      <c r="C47">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B48">
+        <v>113</v>
+      </c>
+      <c r="C48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B49">
+        <v>110</v>
+      </c>
+      <c r="C49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B50">
+        <v>111</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B51">
+        <v>102</v>
+      </c>
+      <c r="C51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B52">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B53">
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B54">
+        <v>103</v>
+      </c>
+      <c r="C54">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B55">
+        <v>108</v>
+      </c>
+      <c r="C55">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B56">
+        <v>98</v>
+      </c>
+      <c r="C56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B57">
+        <v>95</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B58">
+        <v>117</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B59">
+        <v>121</v>
+      </c>
+      <c r="C59">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B60">
+        <v>119</v>
+      </c>
+      <c r="C60">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B61">
+        <v>123</v>
+      </c>
+      <c r="C61">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B62">
+        <v>113</v>
+      </c>
+      <c r="C62">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B63">
+        <v>110</v>
+      </c>
+      <c r="C63">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B64">
+        <v>102</v>
+      </c>
+      <c r="C64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B65">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B66">
+        <v>105</v>
+      </c>
+      <c r="C66">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B67">
+        <v>103</v>
+      </c>
+      <c r="C67">
         <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B68">
+        <v>108</v>
+      </c>
+      <c r="C68">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B69">
+        <v>106</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B70">
+        <v>98</v>
+      </c>
+      <c r="C70">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B71">
+        <v>95</v>
+      </c>
+      <c r="C71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>45936</v>
+      </c>
+      <c r="B72">
+        <v>117</v>
+      </c>
+      <c r="C72">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>45903</v>
+      </c>
+      <c r="B73">
+        <v>205</v>
+      </c>
+      <c r="C73">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>45903</v>
+      </c>
+      <c r="B74">
+        <v>153</v>
+      </c>
+      <c r="C74">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>45903</v>
+      </c>
+      <c r="B75">
+        <v>158</v>
+      </c>
+      <c r="C75">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B76">
+        <v>159</v>
+      </c>
+      <c r="C76">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B77">
+        <v>160</v>
+      </c>
+      <c r="C77">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B78">
+        <v>151</v>
+      </c>
+      <c r="C78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>45912</v>
+      </c>
+      <c r="B79">
+        <v>156</v>
+      </c>
+      <c r="C79">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>45885</v>
+      </c>
+      <c r="B80">
+        <v>173</v>
+      </c>
+      <c r="C80">
+        <v>24005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>45885</v>
+      </c>
+      <c r="B81">
+        <v>174</v>
+      </c>
+      <c r="C81">
+        <v>24005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>45910</v>
+      </c>
+      <c r="B82">
+        <v>156</v>
+      </c>
+      <c r="C82">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>45910</v>
+      </c>
+      <c r="B83">
+        <v>162</v>
+      </c>
+      <c r="C83">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>45910</v>
+      </c>
+      <c r="B84">
+        <v>170</v>
+      </c>
+      <c r="C84">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>45915</v>
+      </c>
+      <c r="B85">
+        <v>206</v>
+      </c>
+      <c r="C85">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>45915</v>
+      </c>
+      <c r="B86">
+        <v>207</v>
+      </c>
+      <c r="C86">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>45915</v>
+      </c>
+      <c r="B87">
+        <v>205</v>
+      </c>
+      <c r="C87">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>45915</v>
+      </c>
+      <c r="B88">
+        <v>379</v>
+      </c>
+      <c r="C88">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>45946</v>
+      </c>
+      <c r="B89">
+        <v>153</v>
+      </c>
+      <c r="C89">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>45946</v>
+      </c>
+      <c r="B90">
+        <v>160</v>
+      </c>
+      <c r="C90">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>45903</v>
+      </c>
+      <c r="B91">
+        <v>148</v>
+      </c>
+      <c r="C91">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>45917</v>
+      </c>
+      <c r="B92">
+        <v>158</v>
+      </c>
+      <c r="C92">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>45917</v>
+      </c>
+      <c r="B93">
+        <v>163</v>
+      </c>
+      <c r="C93">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>45933</v>
+      </c>
+      <c r="B94">
+        <v>157</v>
+      </c>
+      <c r="C94">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>45947</v>
+      </c>
+      <c r="B95">
+        <v>210</v>
+      </c>
+      <c r="C95">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>45947</v>
+      </c>
+      <c r="B96">
+        <v>209</v>
+      </c>
+      <c r="C96">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>45947</v>
+      </c>
+      <c r="B97">
+        <v>213</v>
+      </c>
+      <c r="C97">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>45947</v>
+      </c>
+      <c r="B98">
+        <v>212</v>
+      </c>
+      <c r="C98">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>45947</v>
+      </c>
+      <c r="B99">
+        <v>211</v>
+      </c>
+      <c r="C99">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>45947</v>
+      </c>
+      <c r="B100">
+        <v>208</v>
+      </c>
+      <c r="C100">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>45945</v>
+      </c>
+      <c r="B101">
+        <v>156</v>
+      </c>
+      <c r="C101">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>45945</v>
+      </c>
+      <c r="B102">
+        <v>159</v>
+      </c>
+      <c r="C102">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>45945</v>
+      </c>
+      <c r="B103">
+        <v>154</v>
+      </c>
+      <c r="C103">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>45945</v>
+      </c>
+      <c r="B104">
+        <v>162</v>
+      </c>
+      <c r="C104">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>45945</v>
+      </c>
+      <c r="B105">
+        <v>164</v>
+      </c>
+      <c r="C105">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>45945</v>
+      </c>
+      <c r="B106">
+        <v>170</v>
+      </c>
+      <c r="C106">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>45945</v>
+      </c>
+      <c r="B107">
+        <v>172</v>
+      </c>
+      <c r="C107">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B108">
+        <v>156</v>
+      </c>
+      <c r="C108">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B109">
+        <v>152</v>
+      </c>
+      <c r="C109">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B110">
+        <v>159</v>
+      </c>
+      <c r="C110">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B111">
+        <v>154</v>
+      </c>
+      <c r="C111">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B112">
+        <v>162</v>
+      </c>
+      <c r="C112">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B113">
+        <v>164</v>
+      </c>
+      <c r="C113">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B114">
+        <v>170</v>
+      </c>
+      <c r="C114">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B115">
+        <v>149</v>
+      </c>
+      <c r="C115">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B116">
+        <v>172</v>
+      </c>
+      <c r="C116">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>45863</v>
+      </c>
+      <c r="B117">
+        <v>74</v>
+      </c>
+      <c r="C117">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>45896</v>
+      </c>
+      <c r="B118">
+        <v>58</v>
+      </c>
+      <c r="C118">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>45896</v>
+      </c>
+      <c r="B119">
+        <v>71</v>
+      </c>
+      <c r="C119">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>45904</v>
+      </c>
+      <c r="B120">
+        <v>65</v>
+      </c>
+      <c r="C120">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>45904</v>
+      </c>
+      <c r="B121">
+        <v>60</v>
+      </c>
+      <c r="C121">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>45904</v>
+      </c>
+      <c r="B122">
+        <v>73</v>
+      </c>
+      <c r="C122">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
